--- a/RNAseq sample list.xlsx
+++ b/RNAseq sample list.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27022"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9460" yWindow="0" windowWidth="15220" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -369,12 +374,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,12 +406,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,18 +725,18 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,46 +753,46 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -778,316 +801,316 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>465</v>
+        <v>364</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>427</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>367</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>368</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>369</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>371</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>385</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>382</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>374</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>376</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>380</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>382</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>425</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>383</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>385</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>438</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>449</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="E16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>386</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
         <v>391</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>421</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>430</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>482</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>367</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>429</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>394</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>410</v>
       </c>
@@ -1104,453 +1127,458 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
+        <v>412</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>421</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>425</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>427</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>428</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>429</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>430</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>432</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8">
         <v>434</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>436</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>407</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>447</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>471</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>477</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>374</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>412</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>438</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>442</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>446</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>364</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>380</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>403</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3">
+        <v>449</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
+        <v>460</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>462</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>394</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>445</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <v>465</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>369</v>
+        <v>467</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>357</v>
+        <v>471</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>459</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3">
+        <v>482</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E49">
-    <sortCondition ref="D1"/>
+    <sortCondition ref="A2:A49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>